--- a/works/nettyServer/target/classes/excels/monster.xlsx
+++ b/works/nettyServer/target/classes/excels/monster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -49,19 +49,34 @@
     <t>弓箭手</t>
   </si>
   <si>
+    <t>2,3</t>
+  </si>
+  <si>
     <t>草精</t>
   </si>
   <si>
+    <t>2,4</t>
+  </si>
+  <si>
     <t>地精</t>
   </si>
   <si>
     <t>玉狐</t>
   </si>
   <si>
+    <t>1,4,6</t>
+  </si>
+  <si>
     <t>刑天</t>
   </si>
   <si>
+    <t>1,5,6</t>
+  </si>
+  <si>
     <t>蚩尤</t>
+  </si>
+  <si>
+    <t>1,4,5,7</t>
   </si>
 </sst>
 </file>
@@ -69,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -84,67 +99,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,6 +136,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -174,6 +168,60 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,43 +235,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,13 +251,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,13 +395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,150 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,15 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,26 +460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +508,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -527,6 +533,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1018,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1079,6 +1094,9 @@
       <c r="E3">
         <v>20</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
       <c r="G3">
         <v>15</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -1101,6 +1119,9 @@
       </c>
       <c r="E4">
         <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -1114,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -1126,7 +1147,7 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -1140,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1150,6 +1171,9 @@
       </c>
       <c r="E6">
         <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
       <c r="G6">
         <v>150</v>
@@ -1163,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>40000</v>
@@ -1173,6 +1197,9 @@
       </c>
       <c r="E7">
         <v>200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
       </c>
       <c r="G7">
         <v>4000</v>
@@ -1186,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>15000</v>
@@ -1197,8 +1224,8 @@
       <c r="E8">
         <v>500</v>
       </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
       <c r="G8">
         <v>2000</v>
